--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478946ED-8D8F-4B87-90A4-332F5BA08D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B246C4D-7294-44DC-BE1F-93BBD9787A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,15 +21,7 @@
     <definedName name="кол_во_инд.__упак_к">машины!$AC$3:$AC$941</definedName>
     <definedName name="номин.вес_нетто__кг">машины!$W$3:$W$941</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -795,7 +787,7 @@
     <xf numFmtId="1" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,13 +796,13 @@
     <xf numFmtId="4" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,10 +827,10 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,16 +852,16 @@
     <xf numFmtId="2" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,13 +912,13 @@
     <xf numFmtId="1" fontId="15" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,10 +941,10 @@
     <xf numFmtId="14" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,13 +1579,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45790</v>
+        <v>45797</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/чистый бланк/Бланк Заказа Мос Прод Торг.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B246C4D-7294-44DC-BE1F-93BBD9787A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA948061-01DA-4E06-8F1E-AFC020C84A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,15 @@
     <definedName name="кол_во_инд.__упак_к">машины!$AC$3:$AC$941</definedName>
     <definedName name="номин.вес_нетто__кг">машины!$W$3:$W$941</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1526,7 +1534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1579,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="14">
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="78">
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="G3" s="79"/>
       <c r="H3" s="79"/>
